--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_14_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_14_45.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77180.87556838346</v>
+        <v>5151068.340509115</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77180.87556838346</v>
+        <v>5151068.340509115</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959368474.3093148</v>
+        <v>36203872.32812296</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10771.76770239907</v>
+        <v>939650.8459402543</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20167.23961881145</v>
+        <v>1641473.096060273</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29575.50462388693</v>
+        <v>2343295.346180292</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39168.85845109211</v>
+        <v>3044414.172649521</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>48762.20932797956</v>
+        <v>3745532.99911875</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>58355.56315518472</v>
+        <v>4446651.825587978</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>67948.9169823899</v>
+        <v>5147770.652057202</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>77542.27080959508</v>
+        <v>5848889.478526426</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>87135.62463680028</v>
+        <v>6550008.304995651</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>96728.97846400546</v>
+        <v>7251127.131464876</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>106322.3322912106</v>
+        <v>7952245.957934102</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>115915.6861184158</v>
+        <v>8653364.784403332</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>125509.039945621</v>
+        <v>9354483.610872567</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>135102.3937728262</v>
+        <v>10055602.4373418</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>144695.7476000315</v>
+        <v>10756721.26381104</v>
       </c>
     </row>
   </sheetData>
